--- a/medicine/Mort/Cimetière_d'Allegheny/Cimetière_d'Allegheny.xlsx
+++ b/medicine/Mort/Cimetière_d'Allegheny/Cimetière_d'Allegheny.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Allegheny</t>
+          <t>Cimetière_d'Allegheny</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière d’Allegheny est l’un des plus grands et des plus anciens lieux de sépulture à Pittsburgh, en Pennsylvanie, aux États-Unis.
 Il s’agit d’un cimetière multi-confessionnel prenant la forme d’un parc et d’une colline boisée situé au 4734 Butler Street dans le quartier de Lawrenceville et délimité par Bloomfield, Garfield, et Stanton Heights. Il est situé sur la face versant nord des collines surplombant la rivière Allegheny.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Allegheny</t>
+          <t>Cimetière_d'Allegheny</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Stephen Foster (1826–1864), auteur de chansons
 Josh Gibson (1911–1947), joueur de baseball de la Negro League
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Allegheny</t>
+          <t>Cimetière_d'Allegheny</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Allegheny Cemetery » (voir la liste des auteurs).</t>
         </is>
